--- a/RASTA/risultati/NostriPOI/LDA/result_npmi/topics.xlsx
+++ b/RASTA/risultati/NostriPOI/LDA/result_npmi/topics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,220 +468,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>centro</t>
+          <t>castello</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>abruzzo</t>
+          <t>centro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>anno</t>
+          <t>antico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>primo</t>
+          <t>anno</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>paese</t>
+          <t>palazzo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>antico</t>
+          <t>aquila</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>castello</t>
+          <t>provincia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>palazzo</t>
+          <t>primo</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>storico</t>
+          <t>nuovo</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>teramo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>teramo</t>
+          <t>paese</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>anno</t>
+          <t>antico</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>primo</t>
+          <t>castello</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>museo</t>
+          <t>centro</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>storia</t>
+          <t>anno</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>antico</t>
+          <t>lago</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>abruzzo</t>
+          <t>nome</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>provincia</t>
+          <t>valle</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>oggi</t>
+          <t>primo</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>tre</t>
+          <t>contenere</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>primo</t>
+          <t>anno</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>anno</t>
+          <t>primo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>aquila</t>
+          <t>castello</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>provincia</t>
+          <t>paese</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>noto</t>
+          <t>alcuno</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>alcuno</t>
+          <t>poi</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>teramo</t>
+          <t>lago</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>valle</t>
+          <t>immagine</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>storico</t>
+          <t>luogo</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>centro</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>primo</t>
+          <t>antico</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>paese</t>
+          <t>anno</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>anno</t>
+          <t>romano</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>castello</t>
+          <t>primo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>valle</t>
+          <t>molto</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>palazzo</t>
+          <t>centro</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>torre</t>
+          <t>alcuno</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>costruire</t>
+          <t>lago</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>centro</t>
+          <t>museo</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>nome</t>
+          <t>maggiore</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>castello</t>
+          <t>anno</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>anno</t>
+          <t>centro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -691,252 +691,252 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>provincia</t>
+          <t>verso</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>paese</t>
+          <t>collegamento</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>antico</t>
+          <t>valle</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>romano</t>
+          <t>esterno</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>perugia</t>
+          <t>lago</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>contenere</t>
+          <t>centrale</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>centro</t>
+          <t>lungo</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>museo</t>
+          <t>anno</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>opera</t>
+          <t>centro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>anno</t>
+          <t>primo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>centro</t>
+          <t>antico</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>antico</t>
+          <t>paese</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>primo</t>
+          <t>url</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>navata</t>
+          <t>castello</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>sec</t>
+          <t>alcuno</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>tre</t>
+          <t>abruzzo</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>conservare</t>
+          <t>noto</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>stazione</t>
+          <t>primo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ferroviario</t>
+          <t>anno</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>servizio</t>
+          <t>castello</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>linea</t>
+          <t>paese</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>anno</t>
+          <t>antico</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>centro</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ferrovia</t>
+          <t>realizzare</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>primo</t>
+          <t>palazzo</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>castello</t>
+          <t>esterno</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>antico</t>
+          <t>storico</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lago</t>
+          <t>anno</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>anno</t>
+          <t>primo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>primo</t>
+          <t>centro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>acqua</t>
+          <t>romano</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>realizzare</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>antico</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>valle</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>romano</t>
+          <t>teramo</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>centro</t>
+          <t>opera</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>provincia</t>
+          <t>tre</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>nome</t>
+          <t>palazzo</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>anno</t>
+          <t>paese</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>castello</t>
+          <t>anno</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>centro</t>
+          <t>primo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>luogo</t>
+          <t>valle</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>storico</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nome</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>centro</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>antico</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>piccolo</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>primo</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>romano</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>esterno</t>
+          <t>borgo</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>paese</t>
+          <t>storia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>provincia</t>
+          <t>abruzzo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -946,146 +946,146 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>centro</t>
+          <t>stazione</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>anno</t>
+          <t>paese</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>castello</t>
+          <t>anno</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>romano</t>
+          <t>area</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>molto</t>
+          <t>antico</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>antico</t>
+          <t>centro</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>paese</t>
+          <t>esterno</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>affresco</t>
+          <t>noto</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>anno</t>
+          <t>castello</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>primo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>anno</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>antico</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>centro</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>centro</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>immagine</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>torre</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>noto</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>romano</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>castello</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>opera</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>valle</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>primo</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>alcuno</t>
+          <t>paese</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>provincia</t>
+          <t>opera</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>anno</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>antico</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>primo</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>altare</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>centro</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>progetto</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>maggiore</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>paese</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>castello</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>progetto</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>primo</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>antico</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>lungo</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>grande</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>lago</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>parco</t>
+          <t>navata</t>
         </is>
       </c>
     </row>
@@ -1102,42 +1102,94 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>centro</t>
+          <t>paese</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>nuovo</t>
+          <t>antico</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>opera</t>
+          <t>museo</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>noto</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>lago</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>centro</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>storico</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>castello</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>anno</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>centro</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>paese</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>provincia</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>alcuno</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>valle</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>antico</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>realizzare</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>tre</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>edificio</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>porre</t>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>aquila</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>castello</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>abruzzo</t>
         </is>
       </c>
     </row>
